--- a/data/kelp.xlsx
+++ b/data/kelp.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williammckenna/github/r-workshop/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0342C7-135F-CA49-AEE7-79319F5D899C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="abur" sheetId="1" r:id="rId1"/>
@@ -19,13 +25,66 @@
     <sheet name="scdi" sheetId="10" r:id="rId10"/>
     <sheet name="sctw" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="16">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>total_fronds</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>abur</t>
+  </si>
+  <si>
+    <t>ahnd</t>
+  </si>
+  <si>
+    <t>aque</t>
+  </si>
+  <si>
+    <t>bull</t>
+  </si>
+  <si>
+    <t>carp</t>
+  </si>
+  <si>
+    <t>golb</t>
+  </si>
+  <si>
+    <t>ivee</t>
+  </si>
+  <si>
+    <t>mohk</t>
+  </si>
+  <si>
+    <t>napl</t>
+  </si>
+  <si>
+    <t>scdi</t>
+  </si>
+  <si>
+    <t>sctw</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,13 +132,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -117,7 +184,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -151,6 +218,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -185,9 +253,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -360,84 +429,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>total_fronds</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>17</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>abur</t>
-        </is>
+        <v>2017</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
       <c r="D2">
         <v>307</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>18</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>abur</t>
-        </is>
+        <v>2018</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
       <c r="D3">
         <v>604</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>19</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>abur</t>
-        </is>
+        <v>2019</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
       <c r="D4">
         <v>3532</v>
@@ -449,84 +504,64 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>total_fronds</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>17</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>scdi</t>
-        </is>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
       </c>
       <c r="D2">
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>18</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>scdi</t>
-        </is>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>19</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>scdi</t>
-        </is>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -538,84 +573,64 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>total_fronds</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>17</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>sctw</t>
-        </is>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
       </c>
       <c r="D2">
         <v>712</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>18</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>sctw</t>
-        </is>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
       <c r="D3">
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>19</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>sctw</t>
-        </is>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -627,84 +642,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>total_fronds</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>17</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ahnd</t>
-        </is>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
       </c>
       <c r="D2">
         <v>2572</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>18</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ahnd</t>
-        </is>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
       <c r="D3">
         <v>16</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>19</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ahnd</t>
-        </is>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
       <c r="D4">
         <v>16</v>
@@ -716,84 +711,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>total_fronds</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>17</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>aque</t>
-        </is>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2">
         <v>11152</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>18</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>aque</t>
-        </is>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
       <c r="D3">
         <v>9194</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>19</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>aque</t>
-        </is>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
       <c r="D4">
         <v>7754</v>
@@ -805,66 +780,50 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>total_fronds</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>17</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>bull</t>
-        </is>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
       <c r="D2">
         <v>6706</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>18</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>bull</t>
-        </is>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
       <c r="D3">
         <v>2505</v>
@@ -876,84 +835,64 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>total_fronds</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>17</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>carp</t>
-        </is>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
       </c>
       <c r="D2">
         <v>105504</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>18</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>carp</t>
-        </is>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
       <c r="D3">
         <v>47466</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>19</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>carp</t>
-        </is>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
       <c r="D4">
         <v>5477</v>
@@ -965,84 +904,64 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>total_fronds</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>17</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>golb</t>
-        </is>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
       <c r="D2">
         <v>2557</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>18</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>golb</t>
-        </is>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1575</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>19</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>golb</t>
-        </is>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1629</v>
@@ -1054,84 +973,64 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>total_fronds</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>17</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ivee</t>
-        </is>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2">
         <v>24994</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>18</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ivee</t>
-        </is>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3">
         <v>13371</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>19</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ivee</t>
-        </is>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
       <c r="D4">
         <v>9051</v>
@@ -1143,84 +1042,64 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>total_fronds</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>17</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>mohk</t>
-        </is>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
       </c>
       <c r="D2">
         <v>21444</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>18</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>mohk</t>
-        </is>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
       </c>
       <c r="D3">
         <v>6347</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>19</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>mohk</t>
-        </is>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
       <c r="D4">
         <v>3946</v>
@@ -1232,84 +1111,64 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>month</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>total_fronds</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>17</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>napl</t>
-        </is>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
       <c r="D2">
         <v>63366</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>18</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>napl</t>
-        </is>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
       </c>
       <c r="D3">
         <v>91719</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>19</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>napl</t>
-        </is>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
       </c>
       <c r="D4">
         <v>20747</v>
